--- a/public/informes/1810/1810_2021_12_08.xlsx
+++ b/public/informes/1810/1810_2021_12_08.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.26.0.12\samba-share\CARPETA COMÚ\INFORMES MOTLLES\Terminados\1810_0_0 INTERIOR TARRO MONACO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\FACA-OEM\samba-share\CARPETA COMÚ\INFORMES MOTLLES\Terminados\1810_0_0 INTERIOR TARRO MONACO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>DENOMINACIÓ</t>
   </si>
@@ -82,39 +82,10 @@
 Ajustamos alturas y comprobamos.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>11/01/21</t>
-    </r>
-  </si>
-  <si>
     <t>FUNCIONANT CORRECTAMENT AMB LES DUES CAVITATS</t>
   </si>
   <si>
-    <t>03/03/2021 (taller)</t>
-  </si>
-  <si>
     <t>Según instrucciones: abrir molde, reposicionar y comprobar posicionadores de correderas.- sustituir columna guia de corredera rota, montar y cerrar molde.</t>
-  </si>
-  <si>
-    <t>10/11/2021 (taller) nomes part injeccio.</t>
   </si>
   <si>
     <t>Injeccio: la boquilla n-2 no funciona y la n1 no calienta lo suficiente en la salida.</t>
@@ -138,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,14 +156,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -229,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -297,6 +260,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -312,10 +281,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -355,7 +321,7 @@
         <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -657,8 +623,8 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,35 +639,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="23" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>1810</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="29"/>
       <c r="F3" s="16">
         <v>471</v>
       </c>
@@ -793,12 +759,12 @@
     </row>
     <row r="10" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="22" t="s">
-        <v>17</v>
+      <c r="B10" s="30">
+        <v>44207</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>13</v>
@@ -808,12 +774,12 @@
     </row>
     <row r="11" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="17" t="s">
-        <v>19</v>
+      <c r="B11" s="17">
+        <v>44258</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>13</v>
@@ -823,14 +789,14 @@
     </row>
     <row r="12" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="17" t="s">
-        <v>21</v>
+      <c r="B12" s="17">
+        <v>44510</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>13</v>
@@ -844,7 +810,7 @@
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>13</v>
@@ -852,17 +818,17 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="29">
+    <row r="14" spans="1:7" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="24">
         <v>44540</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F14" s="22"/>
     </row>
